--- a/medicine/Psychotrope/Ueda_Sōko_Ryū/Ueda_Sōko_Ryū.xlsx
+++ b/medicine/Psychotrope/Ueda_Sōko_Ryū/Ueda_Sōko_Ryū.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ueda_S%C5%8Dko_Ry%C5%AB</t>
+          <t>Ueda_Sōko_Ryū</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ueda Sōko-ryū (上田宗箇流), communément appelée Ueda Sōko-ryū (« ryū » signifie « école » en japonais), est une école japonaise de cérémonie du thé. Ses origines remontent au XVIe siècle, à l'époque des samouraïs. Son fondateur, Ueda Sōko (1563-1650), était un seigneur de guerre à l'époque des provinces en guerre, l’époque Sengoku (milieu du XVème au début du XVIIe siècle). Depuis plus de 400 ans, la pratique d’Ueda-ryū reflète les coutumes, l'étiquette et les valeurs des samouraïs.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ueda_S%C5%8Dko_Ry%C5%AB</t>
+          <t>Ueda_Sōko_Ryū</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ueda Sōko</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ueda Sōko était un membre de la classe guerrière. Sōko a servi Niwa Nagahide (1535-1585) qui était un chef militaire au service du clan Oda. Après avoir servi Niwa Nagahide comme page, Ueda Sōko a été choisi par Toyotomi Hideyoshi pour devenir l'un de ses aides et daimyō. Il s’est formé à la pratique du chanoyu auprès de Sen no Rikyu et Furuta Oribe avant développer son propre style, profondément influencé par les valeurs et les coutumes des samouraïs de la période Sengoku. Depuis lors, l’école Ueda Sōko s’est perpétuée sur 16 générations sous un système iemoto. L’actuel et 16ème iemoto est Ueda Sōkei (né en 1945).
 Ueda Sōko est également reconnu comme l'un des principaux concepteurs de jardins de la période Momoyama (1568-1603). Il a conçu et construit de nombreux jardins aujourd’hui classés au Japon comme des sites d’une grande beauté. C’est notamment le cas du jardin Shukkei-en (préfecture d'Hiroshima), du jardin du palais du château de Tokushima (préfecture de Tokushima), du jardin du château de Nagoya (Ninomaru-teien, préfecture de Nagoya) et des jardins du château de Wakayama (Nishinomaru-teien et Kokuwadera-teien, préfecture de Wakayama).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ueda_S%C5%8Dko_Ry%C5%AB</t>
+          <t>Ueda_Sōko_Ryū</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1619 (cinquième année de l'ère Ganwa), Asano Nagaakira a été nommé daimyō du Geishū, devenant ainsi le seigneur de la province d'Aki et de la moitié de la province de Bingo. Ses terres avaient un rendement de 426 500 koku de riz, ce qui représente l’actuelle préfecture d’Hiroshima. Ueda Sōko s’est rendu à Geishū pour servir Asano, et a été nommé principal administrateur du domaine de Geishū sous l’autorité du seigneur. Sōko a également reçu un fief dans l'ouest de la préfecture d'Hiroshima donnant 17 000 koku de riz (environ 2788 tonnes). 
 Sōko a désigné Nomura Kyūmu et Nakamura Mototomo comme ses vassaux et a accordé à chacun d’eux un fief de 100 koku de riz. Il a transmis son style de chanoyu à Kyūmu et Mototomo et à leurs familles respectives, les Nomura et Nakamura, qui ont dès lors pris le titre de « chaji azukari » ou « détenteur des enseignements de chanoyu » . Sous la direction de Sōko, ces deux familles ont enseigné et dirigé chanoyu au nom des familles Asano et Ueda.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ueda_S%C5%8Dko_Ry%C5%AB</t>
+          <t>Ueda_Sōko_Ryū</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Caractéristiques de la cérémonie du thé de style Ueda Sōko</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L’école d’Ueda Sōko est :
 Un style de chanoyu de classe guerrière transmis de la période Momoyama (1573-1603) à nos jours.
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ueda_S%C5%8Dko_Ry%C5%AB</t>
+          <t>Ueda_Sōko_Ryū</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Généalogie du Ueda Sōko-ryū</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Ueda vient de la ville d'Ueda à Shinano, située dans l’actuelle préfecture de Nagano. Les Ueda ont choisi ce nom après avoir porté celui d’Ogasawara, le clan dont ils descendaient. Le clan Ogasawara était un clan de samouraï japonais descendant du Seiwa Genji. La lignée de Seiwa Genji comprend : Seiwa Genji, ancêtres de Minamoto no Yoshimitsu (alias Shinra Saburō Yoshimitsu), clan Takeda, Clan Ogasawara et la famille Ueda. Le grand-père de Ueda Sōko, Shigeshi, et son père, Shigemoto, ont tous deux été au service de Niwa Nagahide et ont acquis une renommée militaire pendant les périodes instables des époques Genki (1570-1573) et Tenshō (1573-1592).
 En 1619 (cinquième année de l'ère Genwa), Ueda Sōko s’est installé à Hiroshima pour servir Asano Nagaakira. À cette époque, Sōko avait deux fils, l'aîné Shigehide et son deuxième, Shigemasa. Peu de temps après l’installation à Hiroshima, Shigehide a été appelé à résider au château d'Edo en caution du shogunat de Tokugawa. Sōko était alors un « hatamoto » (un samouraï au service direct du shogunat Tokugawa du Japon féodal) avec 5000 koku de terres. En 1632 (9ème année de l'ère Kanei), l’aîné étant toujours retenu au château d'Edo, le deuxième fils Shigemasa a pris la succession de Sōko. Les descendants de Shigemasa ont conservé un fief de 17 000 koku de terres et la charge de principal administrateur du domaine d’Hiroshima. La restauration Meiji a eu lieu à l'époque de la 12e génération d'Ueda Yasuatsu (Ueda Jōō). Le chef actuel de la famille Ueda, Ueda Sōkei, est le 16e grand maître à succéder à Ueda Sōko.
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ueda_S%C5%8Dko_Ry%C5%AB</t>
+          <t>Ueda_Sōko_Ryū</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,7 +670,9 @@
           <t>Généalogie abrégée de la famille Ueda</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ueda Mondonokami Shigeyasu (Sōko) 上田主水正重安(宗箇) 1563–1650
 Ueda Bizennokami Shigemasa 上田備前守重政 1607–1650
